--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3520952.126851679</v>
+        <v>3525891.389700713</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>258.8473439824714</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>218.6090856296203</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>73.31370764131945</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>192.5627265154904</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>130.4588318996847</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>220.2797909176825</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>85.64047902724785</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>323.9918595228966</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>150.8400357509153</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295497</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733188</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>24.30197918502513</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>247.64704583162</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>112.2792196973214</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>57.89259855394983</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.1537278750035</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>183.1796758467</v>
+        <v>95.81278504222351</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>157.2425576766696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>161.6255032160662</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1408.645612988121</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="C2" t="n">
-        <v>1039.683096047709</v>
+        <v>1425.774672860787</v>
       </c>
       <c r="D2" t="n">
-        <v>681.4173974409589</v>
+        <v>1067.508974254036</v>
       </c>
       <c r="E2" t="n">
-        <v>295.6291448427147</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>288.6836440935112</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>274.7602400321021</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.645612988121</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1408.645612988121</v>
+        <v>1794.737189801198</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.118241157406</v>
+        <v>1877.070485994672</v>
       </c>
       <c r="C5" t="n">
-        <v>1881.118241157406</v>
+        <v>1508.107969054261</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1149.84227044751</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>764.0540178492658</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>757.1085171000624</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="Y5" t="n">
-        <v>1881.118241157406</v>
+        <v>1877.070485994672</v>
       </c>
     </row>
     <row r="6">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1744.23243129246</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C8" t="n">
-        <v>1375.269914352048</v>
+        <v>1177.981643776799</v>
       </c>
       <c r="D8" t="n">
-        <v>1017.004215745297</v>
+        <v>1177.981643776799</v>
       </c>
       <c r="E8" t="n">
-        <v>631.2159631470531</v>
+        <v>792.1933911785545</v>
       </c>
       <c r="F8" t="n">
-        <v>220.2300583574456</v>
+        <v>381.207486388947</v>
       </c>
       <c r="G8" t="n">
-        <v>206.3066542960365</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>206.3066542960365</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.971603332393</v>
+        <v>2323.683332757144</v>
       </c>
       <c r="Y8" t="n">
-        <v>2130.832271356581</v>
+        <v>1933.544000781332</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572651</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>325.687940232665</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>156.7517573047581</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4553696737762</v>
+        <v>507.3364050629048</v>
       </c>
     </row>
     <row r="11">
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,19 +5120,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.4452354807079</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>415.509052552801</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
         <v>265.3924131404652</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1474.368816835655</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W13" t="n">
-        <v>994.083251208965</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X13" t="n">
-        <v>766.0937003109476</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y13" t="n">
-        <v>766.0937003109476</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="14">
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5363,16 +5363,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977053</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>357.5203921878137</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5743,34 +5743,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5840,13 +5840,13 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5943,13 +5943,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6174,19 +6174,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6229,25 +6229,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1240.518888196738</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1240.518888196738</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>985.8343999908507</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>696.41722995389</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>468.4276790558727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6466,46 +6466,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>755.183133481126</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>465.7659634441654</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>237.776412546148</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028587</v>
@@ -6688,25 +6688,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1336.117678709276</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>1046.700508672316</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7162,25 +7162,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7201,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>978.4302543112195</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>723.7457661053327</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7411,25 +7411,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451747</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,19 +9011,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305277</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>197.2455818733641</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>38.87595250497102</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>34.15474294924782</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
-        <v>163.6549625044394</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.43092547709125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>103.0576765518773</v>
+        <v>190.4245673563538</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>61.34209567542518</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>5.621317882561584</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.85454099</v>
       </c>
       <c r="F2" t="n">
         <v>684300.8545409905</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.85454099</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="K2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="M2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="N2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="O2" t="n">
+        <v>684300.8545409899</v>
+      </c>
+      <c r="P2" t="n">
         <v>684300.8545409902</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="P2" t="n">
-        <v>684300.8545409899</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.407704980418203e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512225</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26438,7 +26438,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,16 +26499,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111190.3668979287</v>
+        <v>-111190.3668979286</v>
       </c>
       <c r="C6" t="n">
-        <v>478777.5123166156</v>
+        <v>478777.512316616</v>
       </c>
       <c r="D6" t="n">
-        <v>478777.5123166156</v>
+        <v>478777.5123166155</v>
       </c>
       <c r="E6" t="n">
-        <v>51133.23123421724</v>
+        <v>52010.36336796627</v>
       </c>
       <c r="F6" t="n">
-        <v>576293.2677111132</v>
+        <v>577170.3998448628</v>
       </c>
       <c r="G6" t="n">
-        <v>576293.267711113</v>
+        <v>577170.3998448624</v>
       </c>
       <c r="H6" t="n">
-        <v>576293.2677111127</v>
+        <v>577170.3998448622</v>
       </c>
       <c r="I6" t="n">
-        <v>576293.2677111126</v>
+        <v>577170.3998448623</v>
       </c>
       <c r="J6" t="n">
-        <v>399870.0485185198</v>
+        <v>400747.1806522695</v>
       </c>
       <c r="K6" t="n">
-        <v>576293.2677111131</v>
+        <v>577170.3998448626</v>
       </c>
       <c r="L6" t="n">
-        <v>576293.267711113</v>
+        <v>577170.3998448626</v>
       </c>
       <c r="M6" t="n">
-        <v>441492.2524772758</v>
+        <v>442369.3846110254</v>
       </c>
       <c r="N6" t="n">
-        <v>576293.2677111129</v>
+        <v>577170.3998448626</v>
       </c>
       <c r="O6" t="n">
-        <v>576293.267711113</v>
+        <v>577170.3998448621</v>
       </c>
       <c r="P6" t="n">
-        <v>576293.2677111125</v>
+        <v>577170.3998448624</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370133</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>123.0830260897903</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>105.3136871347369</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>82.85718120047569</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>19.58281243452848</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>224.2242097209983</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>193.5043791031125</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>166.4971642965801</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>89.79231049789837</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>1.091280493945902</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.83478528866266</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758239</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
         <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
         <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770699</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355116</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541609</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>401.6619767334877</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
